--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190387.8636262797</v>
+        <v>181316.0804158301</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12366625.55911118</v>
+        <v>12366625.55911119</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4766458.780389732</v>
+        <v>4766458.780389731</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>193.3854158231842</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>219.5565574740967</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>219.5565574740967</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="G11" t="n">
-        <v>219.5565574740967</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>91.13088952452711</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>112.781638958837</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>93.09630611656611</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>153.0879702036285</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1530,7 +1530,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>103.6312397358136</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5.779193097528894</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.3856723961843</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.5565574740967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.9386692965036</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>351.938669296504</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>61.24312269774812</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3439473982323</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>309.9875799163603</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>351.9386692965036</v>
+        <v>351.938669296504</v>
       </c>
       <c r="Y14" t="n">
-        <v>351.9386692965036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>112.395749303407</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>153.8142547331629</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3130885457364</v>
+        <v>123.1039979750977</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.7595946406522</v>
+        <v>89.53575554997587</v>
       </c>
       <c r="H16" t="n">
-        <v>140.8360162103025</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>47.85822478914491</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.62658369541031</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.6569108527184</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9255318417156</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>191.4409403166173</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V17" t="n">
-        <v>242.2596953509418</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>92.17944983766449</v>
       </c>
       <c r="G18" t="n">
         <v>104.7337711575492</v>
@@ -1976,7 +1976,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T18" t="n">
-        <v>133.7157249415969</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U18" t="n">
         <v>195.2992474636072</v>
@@ -2004,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>41.17504586721964</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>85.27009235220248</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U19" t="n">
         <v>279.9159111551209</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.2542707870512</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>262.7903598685529</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>22.55358673210949</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H21" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>84.8724997021109</v>
+        <v>8.475005000638527</v>
       </c>
       <c r="T21" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U21" t="n">
-        <v>60.32052843435592</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2241,16 +2241,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5832153864156</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.2560016234265</v>
+        <v>58.55450205655777</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>184.4798682276867</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>154.7934557201299</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.08714026841606</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S25" t="n">
         <v>166.3415337283568</v>
@@ -2538,7 +2538,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>135.7790051890647</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>52.9769261112932</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
-        <v>63.80893382860334</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098241</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T27" t="n">
         <v>152.7312370348056</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>117.9956180688313</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2730,10 +2730,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>5.186216428964733</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>337.2378371385923</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3037726831681</v>
+        <v>151.1009761923668</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
-        <v>232.6944259398202</v>
+        <v>105.4223300825045</v>
       </c>
       <c r="U31" t="n">
         <v>279.9132448002744</v>
@@ -3012,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>71.04543291718923</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>324.8378223519649</v>
+        <v>41.85633458946393</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>116.1884165547038</v>
       </c>
       <c r="D34" t="n">
-        <v>90.3096168695706</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
         <v>232.6944259398202</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>41.85633458946351</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>189.8671364234307</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>71.43328858806707</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>269.9566622967337</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>356.638146535619</v>
+        <v>12.10524725814234</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>111.5979939854453</v>
       </c>
       <c r="G40" t="n">
         <v>164.5343322142292</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>232.6944259398202</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.2468360148746</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>347.4937102859716</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>356.8108125526772</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>104.6754635109996</v>
+        <v>104.6754635109997</v>
       </c>
       <c r="H42" t="n">
         <v>58.01809521505031</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T42" t="n">
         <v>152.7312370348056</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3909,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
-        <v>25.50412356841765</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>40.41816773130169</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>141.0149784777625</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>361.7352324216316</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475958</v>
       </c>
       <c r="F45" t="n">
         <v>107.8702810193205</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098241</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T45" t="n">
         <v>152.7312370348056</v>
@@ -4146,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>146.9622017323219</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>34.80250598586326</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>166.3415337283568</v>
@@ -4200,7 +4200,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>878.2262298963867</v>
+        <v>461.1131255556985</v>
       </c>
       <c r="C11" t="n">
-        <v>682.8874260345845</v>
+        <v>461.1131255556985</v>
       </c>
       <c r="D11" t="n">
-        <v>682.8874260345845</v>
+        <v>461.1131255556985</v>
       </c>
       <c r="E11" t="n">
-        <v>461.1131255556988</v>
+        <v>461.1131255556985</v>
       </c>
       <c r="F11" t="n">
-        <v>239.3388250768133</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="G11" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H11" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I11" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J11" t="n">
         <v>61.76566646422714</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474255</v>
+        <v>148.5608200474254</v>
       </c>
       <c r="L11" t="n">
         <v>271.1830965723312</v>
       </c>
       <c r="M11" t="n">
-        <v>420.4501281543865</v>
+        <v>420.4501281543864</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547437</v>
+        <v>574.0010487547435</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809679</v>
+        <v>713.5940480809678</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598426</v>
+        <v>818.7605380598425</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963867</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963867</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="S11" t="n">
-        <v>878.2262298963867</v>
+        <v>774.9388295947123</v>
       </c>
       <c r="T11" t="n">
-        <v>878.2262298963867</v>
+        <v>682.8874260345839</v>
       </c>
       <c r="U11" t="n">
-        <v>878.2262298963867</v>
+        <v>682.8874260345839</v>
       </c>
       <c r="V11" t="n">
-        <v>878.2262298963867</v>
+        <v>682.8874260345839</v>
       </c>
       <c r="W11" t="n">
-        <v>878.2262298963867</v>
+        <v>682.8874260345839</v>
       </c>
       <c r="X11" t="n">
-        <v>878.2262298963867</v>
+        <v>461.1131255556985</v>
       </c>
       <c r="Y11" t="n">
-        <v>878.2262298963867</v>
+        <v>461.1131255556985</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.4853720310965</v>
+        <v>470.1532840782014</v>
       </c>
       <c r="C12" t="n">
-        <v>17.56452459792774</v>
+        <v>470.1532840782014</v>
       </c>
       <c r="D12" t="n">
-        <v>17.56452459792774</v>
+        <v>353.2561262975938</v>
       </c>
       <c r="E12" t="n">
-        <v>17.56452459792774</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="F12" t="n">
-        <v>17.56452459792774</v>
+        <v>123.8034304724264</v>
       </c>
       <c r="G12" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H12" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I12" t="n">
-        <v>22.57805692180552</v>
+        <v>22.57805692180551</v>
       </c>
       <c r="J12" t="n">
-        <v>199.1734695941008</v>
+        <v>199.1734695941002</v>
       </c>
       <c r="K12" t="n">
-        <v>262.7954326257566</v>
+        <v>262.795432625756</v>
       </c>
       <c r="L12" t="n">
-        <v>367.1036425275517</v>
+        <v>367.1036425275511</v>
       </c>
       <c r="M12" t="n">
-        <v>496.6659351922982</v>
+        <v>496.6659351922976</v>
       </c>
       <c r="N12" t="n">
-        <v>635.4928574101241</v>
+        <v>635.4928574101235</v>
       </c>
       <c r="O12" t="n">
-        <v>753.4933521432235</v>
+        <v>753.493352143223</v>
       </c>
       <c r="P12" t="n">
-        <v>840.3692604453885</v>
+        <v>840.3692604453879</v>
       </c>
       <c r="Q12" t="n">
-        <v>878.2262298963867</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="R12" t="n">
-        <v>878.2262298963867</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="S12" t="n">
-        <v>878.2262298963867</v>
+        <v>784.1895570513699</v>
       </c>
       <c r="T12" t="n">
-        <v>878.2262298963867</v>
+        <v>629.5552437143714</v>
       </c>
       <c r="U12" t="n">
-        <v>680.9248405353399</v>
+        <v>629.5552437143714</v>
       </c>
       <c r="V12" t="n">
-        <v>467.2133135283736</v>
+        <v>629.5552437143714</v>
       </c>
       <c r="W12" t="n">
-        <v>467.2133135283736</v>
+        <v>629.5552437143714</v>
       </c>
       <c r="X12" t="n">
-        <v>290.8873316672664</v>
+        <v>629.5552437143714</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.4853720310965</v>
+        <v>470.1532840782014</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>293.3359169713765</v>
+        <v>190.0226979019605</v>
       </c>
       <c r="C13" t="n">
-        <v>122.242544533093</v>
+        <v>190.0226979019605</v>
       </c>
       <c r="D13" t="n">
-        <v>122.242544533093</v>
+        <v>190.0226979019605</v>
       </c>
       <c r="E13" t="n">
-        <v>122.242544533093</v>
+        <v>190.0226979019605</v>
       </c>
       <c r="F13" t="n">
-        <v>122.242544533093</v>
+        <v>190.0226979019605</v>
       </c>
       <c r="G13" t="n">
-        <v>17.56452459792774</v>
+        <v>23.40209338331044</v>
       </c>
       <c r="H13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I13" t="n">
-        <v>17.56452459792774</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J13" t="n">
         <v>75.28691789969619</v>
       </c>
       <c r="K13" t="n">
-        <v>95.27272118859375</v>
+        <v>292.6479097990518</v>
       </c>
       <c r="L13" t="n">
-        <v>312.6337130879494</v>
+        <v>427.6025555970193</v>
       </c>
       <c r="M13" t="n">
-        <v>529.9947049873051</v>
+        <v>468.6576018968092</v>
       </c>
       <c r="N13" t="n">
-        <v>641.4332394049515</v>
+        <v>511.9187489500396</v>
       </c>
       <c r="O13" t="n">
-        <v>858.7942313043071</v>
+        <v>543.6506192616157</v>
       </c>
       <c r="P13" t="n">
-        <v>878.2262298963867</v>
+        <v>761.0116111609713</v>
       </c>
       <c r="Q13" t="n">
-        <v>878.2262298963867</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="R13" t="n">
-        <v>878.2262298963867</v>
+        <v>821.2710052537757</v>
       </c>
       <c r="S13" t="n">
-        <v>702.8099238443065</v>
+        <v>821.2710052537757</v>
       </c>
       <c r="T13" t="n">
-        <v>702.8099238443065</v>
+        <v>821.2710052537757</v>
       </c>
       <c r="U13" t="n">
-        <v>702.8099238443065</v>
+        <v>599.4967047748903</v>
       </c>
       <c r="V13" t="n">
-        <v>702.8099238443065</v>
+        <v>599.4967047748903</v>
       </c>
       <c r="W13" t="n">
-        <v>702.8099238443065</v>
+        <v>599.4967047748903</v>
       </c>
       <c r="X13" t="n">
-        <v>702.8099238443065</v>
+        <v>377.7224042960049</v>
       </c>
       <c r="Y13" t="n">
-        <v>481.0356233654209</v>
+        <v>377.7224042960049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.15509354372029</v>
+        <v>383.6486988937244</v>
       </c>
       <c r="C14" t="n">
-        <v>28.15509354372029</v>
+        <v>383.6486988937244</v>
       </c>
       <c r="D14" t="n">
-        <v>28.15509354372029</v>
+        <v>383.6486988937244</v>
       </c>
       <c r="E14" t="n">
-        <v>28.15509354372029</v>
+        <v>383.6486988937244</v>
       </c>
       <c r="F14" t="n">
-        <v>28.15509354372029</v>
+        <v>383.6486988937244</v>
       </c>
       <c r="G14" t="n">
-        <v>28.15509354372029</v>
+        <v>28.15509354372032</v>
       </c>
       <c r="H14" t="n">
-        <v>28.15509354372029</v>
+        <v>28.15509354372032</v>
       </c>
       <c r="I14" t="n">
-        <v>28.15509354372029</v>
+        <v>28.15509354372032</v>
       </c>
       <c r="J14" t="n">
-        <v>108.846763092378</v>
+        <v>108.8467630923781</v>
       </c>
       <c r="K14" t="n">
-        <v>250.3317584779564</v>
+        <v>250.3317584779568</v>
       </c>
       <c r="L14" t="n">
-        <v>440.8016197653326</v>
+        <v>440.8016197653332</v>
       </c>
       <c r="M14" t="n">
-        <v>665.5621622256614</v>
+        <v>665.5621622256622</v>
       </c>
       <c r="N14" t="n">
-        <v>895.8281576363383</v>
+        <v>895.8281576363393</v>
       </c>
       <c r="O14" t="n">
-        <v>1107.861026722541</v>
+        <v>1107.861026722542</v>
       </c>
       <c r="P14" t="n">
-        <v>1274.853269585937</v>
+        <v>1274.853269585939</v>
       </c>
       <c r="Q14" t="n">
-        <v>1380.747527042101</v>
+        <v>1380.747527042103</v>
       </c>
       <c r="R14" t="n">
-        <v>1407.754677186014</v>
+        <v>1407.754677186016</v>
       </c>
       <c r="S14" t="n">
-        <v>1407.754677186014</v>
+        <v>1407.754677186016</v>
       </c>
       <c r="T14" t="n">
-        <v>1407.754677186014</v>
+        <v>1345.89293708728</v>
       </c>
       <c r="U14" t="n">
-        <v>1407.754677186014</v>
+        <v>1088.979858907248</v>
       </c>
       <c r="V14" t="n">
-        <v>1407.754677186014</v>
+        <v>739.1423042437284</v>
       </c>
       <c r="W14" t="n">
-        <v>1094.635909593731</v>
+        <v>739.1423042437284</v>
       </c>
       <c r="X14" t="n">
-        <v>739.1423042437275</v>
+        <v>383.6486988937244</v>
       </c>
       <c r="Y14" t="n">
-        <v>383.6486988937239</v>
+        <v>383.6486988937244</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>275.6812246972059</v>
+        <v>508.5000184005497</v>
       </c>
       <c r="C15" t="n">
-        <v>141.6861534461516</v>
+        <v>374.5049471494954</v>
       </c>
       <c r="D15" t="n">
-        <v>141.6861534461516</v>
+        <v>257.6077893688878</v>
       </c>
       <c r="E15" t="n">
-        <v>28.15509354372029</v>
+        <v>137.1149733612157</v>
       </c>
       <c r="F15" t="n">
-        <v>28.15509354372029</v>
+        <v>28.15509354372032</v>
       </c>
       <c r="G15" t="n">
-        <v>28.15509354372029</v>
+        <v>28.15509354372032</v>
       </c>
       <c r="H15" t="n">
-        <v>28.15509354372029</v>
+        <v>28.15509354372032</v>
       </c>
       <c r="I15" t="n">
-        <v>28.15509354372029</v>
+        <v>41.08878000038689</v>
       </c>
       <c r="J15" t="n">
-        <v>312.2616750906751</v>
+        <v>305.9156634390044</v>
       </c>
       <c r="K15" t="n">
-        <v>494.6533702988359</v>
+        <v>406.6836538218557</v>
       </c>
       <c r="L15" t="n">
-        <v>648.9089980788104</v>
+        <v>560.9392816018303</v>
       </c>
       <c r="M15" t="n">
-        <v>836.757571539889</v>
+        <v>748.787855062909</v>
       </c>
       <c r="N15" t="n">
-        <v>1035.413438970485</v>
+        <v>947.4437224935047</v>
       </c>
       <c r="O15" t="n">
-        <v>1208.145730040067</v>
+        <v>1120.176013563087</v>
       </c>
       <c r="P15" t="n">
-        <v>1338.94873014266</v>
+        <v>1250.97901366568</v>
       </c>
       <c r="Q15" t="n">
-        <v>1406.169797158076</v>
+        <v>1318.200080681097</v>
       </c>
       <c r="R15" t="n">
-        <v>1407.754677186014</v>
+        <v>1407.754677186016</v>
       </c>
       <c r="S15" t="n">
-        <v>1318.077607936934</v>
+        <v>1318.077607936936</v>
       </c>
       <c r="T15" t="n">
-        <v>1162.709673863032</v>
+        <v>1162.709673863034</v>
       </c>
       <c r="U15" t="n">
-        <v>965.4237258370359</v>
+        <v>1038.362201160915</v>
       </c>
       <c r="V15" t="n">
-        <v>751.7121988300697</v>
+        <v>1038.362201160915</v>
       </c>
       <c r="W15" t="n">
-        <v>751.7121988300697</v>
+        <v>825.1290328972436</v>
       </c>
       <c r="X15" t="n">
-        <v>575.3862169689626</v>
+        <v>648.8030510361364</v>
       </c>
       <c r="Y15" t="n">
-        <v>415.9842573327926</v>
+        <v>648.8030510361364</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>385.1791699478613</v>
+        <v>613.8143936696903</v>
       </c>
       <c r="C16" t="n">
-        <v>385.1791699478613</v>
+        <v>442.7210212314068</v>
       </c>
       <c r="D16" t="n">
-        <v>385.1791699478613</v>
+        <v>283.2263765543168</v>
       </c>
       <c r="E16" t="n">
-        <v>385.1791699478613</v>
+        <v>283.2263765543168</v>
       </c>
       <c r="F16" t="n">
-        <v>385.1791699478613</v>
+        <v>118.5952506649081</v>
       </c>
       <c r="G16" t="n">
-        <v>218.7553369775055</v>
+        <v>28.15509354372032</v>
       </c>
       <c r="H16" t="n">
-        <v>76.49673474487676</v>
+        <v>28.15509354372032</v>
       </c>
       <c r="I16" t="n">
-        <v>28.15509354372029</v>
+        <v>28.15509354372032</v>
       </c>
       <c r="J16" t="n">
-        <v>99.51239151545641</v>
+        <v>99.51239151545647</v>
       </c>
       <c r="K16" t="n">
-        <v>268.4073931652283</v>
+        <v>348.1847252400344</v>
       </c>
       <c r="L16" t="n">
-        <v>616.8266757687668</v>
+        <v>696.6040078435733</v>
       </c>
       <c r="M16" t="n">
-        <v>965.2459583723054</v>
+        <v>767.8900765458645</v>
       </c>
       <c r="N16" t="n">
-        <v>1038.019301684963</v>
+        <v>911.7453414791273</v>
       </c>
       <c r="O16" t="n">
-        <v>1097.010461929503</v>
+        <v>970.7365017236671</v>
       </c>
       <c r="P16" t="n">
-        <v>1400.664975720205</v>
+        <v>1274.391015514369</v>
       </c>
       <c r="Q16" t="n">
-        <v>1407.754677186014</v>
+        <v>1407.754677186016</v>
       </c>
       <c r="R16" t="n">
-        <v>1407.754677186014</v>
+        <v>1359.647016887622</v>
       </c>
       <c r="S16" t="n">
-        <v>1407.754677186014</v>
+        <v>1359.647016887622</v>
       </c>
       <c r="T16" t="n">
-        <v>1171.737595516602</v>
+        <v>1359.647016887622</v>
       </c>
       <c r="U16" t="n">
-        <v>888.9845330502222</v>
+        <v>1076.893954421242</v>
       </c>
       <c r="V16" t="n">
-        <v>888.9845330502222</v>
+        <v>1076.893954421242</v>
       </c>
       <c r="W16" t="n">
-        <v>609.9148685590966</v>
+        <v>1076.893954421242</v>
       </c>
       <c r="X16" t="n">
-        <v>609.9148685590966</v>
+        <v>838.5500922809256</v>
       </c>
       <c r="Y16" t="n">
-        <v>385.1791699478613</v>
+        <v>613.8143936696903</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>447.8685954219921</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="C17" t="n">
-        <v>37.74400473526219</v>
+        <v>923.5522698527099</v>
       </c>
       <c r="D17" t="n">
-        <v>37.74400473526219</v>
+        <v>519.0883399457704</v>
       </c>
       <c r="E17" t="n">
-        <v>37.74400473526219</v>
+        <v>519.0883399457704</v>
       </c>
       <c r="F17" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G17" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H17" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I17" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J17" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K17" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L17" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M17" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N17" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O17" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P17" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q17" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R17" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S17" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T17" t="n">
-        <v>1887.20023676311</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U17" t="n">
-        <v>1887.20023676311</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="V17" t="n">
-        <v>1642.49347378236</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="W17" t="n">
-        <v>1258.733172917529</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="X17" t="n">
-        <v>858.0897750864815</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="Y17" t="n">
-        <v>858.0897750864815</v>
+        <v>1333.67686053944</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>566.1564137158559</v>
+        <v>546.7114310628764</v>
       </c>
       <c r="C18" t="n">
-        <v>432.1613424648016</v>
+        <v>412.7163598118221</v>
       </c>
       <c r="D18" t="n">
-        <v>432.1613424648016</v>
+        <v>295.8192020312145</v>
       </c>
       <c r="E18" t="n">
-        <v>311.6685264571296</v>
+        <v>295.8192020312145</v>
       </c>
       <c r="F18" t="n">
         <v>202.7086466396342</v>
       </c>
       <c r="G18" t="n">
-        <v>96.91695860170567</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H18" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I18" t="n">
-        <v>57.84875584306885</v>
+        <v>57.84875584306886</v>
       </c>
       <c r="J18" t="n">
         <v>361.6332868996043</v>
@@ -5603,19 +5603,19 @@
         <v>695.5130379051964</v>
       </c>
       <c r="M18" t="n">
-        <v>1045.216882605861</v>
+        <v>936.1351661301428</v>
       </c>
       <c r="N18" t="n">
-        <v>1298.043063762311</v>
+        <v>1188.961347286593</v>
       </c>
       <c r="O18" t="n">
-        <v>1520.330608861244</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P18" t="n">
-        <v>1690.906069190758</v>
+        <v>1581.82435271504</v>
       </c>
       <c r="Q18" t="n">
-        <v>1784.713972589204</v>
+        <v>1784.713972589205</v>
       </c>
       <c r="R18" t="n">
         <v>1887.20023676311</v>
@@ -5624,22 +5624,22 @@
         <v>1801.47043908421</v>
       </c>
       <c r="T18" t="n">
-        <v>1666.404050254314</v>
+        <v>1646.959067601334</v>
       </c>
       <c r="U18" t="n">
-        <v>1469.132083119357</v>
+        <v>1449.687100466378</v>
       </c>
       <c r="V18" t="n">
-        <v>1255.420556112391</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W18" t="n">
-        <v>1042.18738784872</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X18" t="n">
-        <v>865.8614059876126</v>
+        <v>846.416423334633</v>
       </c>
       <c r="Y18" t="n">
-        <v>706.4594463514426</v>
+        <v>687.014463698463</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1086.925631592917</v>
+        <v>165.4663665730623</v>
       </c>
       <c r="C19" t="n">
-        <v>915.8322591546337</v>
+        <v>165.4663665730623</v>
       </c>
       <c r="D19" t="n">
-        <v>756.3376144775436</v>
+        <v>165.4663665730623</v>
       </c>
       <c r="E19" t="n">
-        <v>595.4267993458632</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="F19" t="n">
-        <v>430.7956734564545</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="G19" t="n">
-        <v>264.550001348964</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="H19" t="n">
-        <v>123.8754111516283</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="I19" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J19" t="n">
-        <v>56.4452522174457</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K19" t="n">
-        <v>325.4047277643195</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L19" t="n">
-        <v>417.7244770225101</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M19" t="n">
-        <v>861.3486625663052</v>
+        <v>1240.329137432665</v>
       </c>
       <c r="N19" t="n">
-        <v>1292.877235205633</v>
+        <v>1402.86587333036</v>
       </c>
       <c r="O19" t="n">
-        <v>1414.441451118523</v>
+        <v>1801.612894797479</v>
       </c>
       <c r="P19" t="n">
-        <v>1739.214911294502</v>
+        <v>1865.488871500339</v>
       </c>
       <c r="Q19" t="n">
         <v>1887.20023676311</v>
@@ -5703,22 +5703,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T19" t="n">
-        <v>1887.20023676311</v>
+        <v>1651.944387871395</v>
       </c>
       <c r="U19" t="n">
-        <v>1604.456892161977</v>
+        <v>1369.201043270262</v>
       </c>
       <c r="V19" t="n">
-        <v>1604.456892161977</v>
+        <v>1095.315298209784</v>
       </c>
       <c r="W19" t="n">
-        <v>1325.387227670852</v>
+        <v>816.2456337186586</v>
       </c>
       <c r="X19" t="n">
-        <v>1325.387227670852</v>
+        <v>577.901771578342</v>
       </c>
       <c r="Y19" t="n">
-        <v>1274.625337986962</v>
+        <v>353.1660729671067</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>730.1775826642075</v>
+        <v>591.1584607053013</v>
       </c>
       <c r="C20" t="n">
-        <v>730.1775826642075</v>
+        <v>591.1584607053013</v>
       </c>
       <c r="D20" t="n">
         <v>325.7136527572681</v>
@@ -5746,31 +5746,31 @@
         <v>325.7136527572681</v>
       </c>
       <c r="H20" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I20" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J20" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K20" t="n">
-        <v>342.4771847987909</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L20" t="n">
-        <v>594.3775951131304</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M20" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N20" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O20" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P20" t="n">
-        <v>1687.808675484974</v>
+        <v>1687.808675484973</v>
       </c>
       <c r="Q20" t="n">
         <v>1835.740277181655</v>
@@ -5779,25 +5779,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S20" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T20" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="U20" t="n">
-        <v>1864.418836023606</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="V20" t="n">
-        <v>1514.581281360086</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="W20" t="n">
-        <v>1130.820980495255</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="X20" t="n">
-        <v>730.1775826642075</v>
+        <v>1402.316313421701</v>
       </c>
       <c r="Y20" t="n">
-        <v>730.1775826642075</v>
+        <v>1001.379640369791</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>683.0535714964635</v>
+        <v>623.88061763002</v>
       </c>
       <c r="C21" t="n">
-        <v>549.0585002454092</v>
+        <v>489.8855463789657</v>
       </c>
       <c r="D21" t="n">
-        <v>432.1613424648016</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="E21" t="n">
-        <v>311.6685264571296</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="F21" t="n">
-        <v>202.7086466396342</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G21" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H21" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28095199337147</v>
+        <v>57.84875584306886</v>
       </c>
       <c r="J21" t="n">
-        <v>342.0654830499069</v>
+        <v>361.6332868996043</v>
       </c>
       <c r="K21" t="n">
-        <v>693.0854602047136</v>
+        <v>496.0340272520128</v>
       </c>
       <c r="L21" t="n">
-        <v>892.564470857897</v>
+        <v>695.5130379051964</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.186599082843</v>
+        <v>936.1351661301428</v>
       </c>
       <c r="N21" t="n">
-        <v>1386.012780239293</v>
+        <v>1188.961347286593</v>
       </c>
       <c r="O21" t="n">
-        <v>1608.300325338226</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P21" t="n">
-        <v>1778.87578566774</v>
+        <v>1581.82435271504</v>
       </c>
       <c r="Q21" t="n">
-        <v>1872.683689066186</v>
+        <v>1784.713972589205</v>
       </c>
       <c r="R21" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S21" t="n">
-        <v>1801.47043908421</v>
+        <v>1878.639625651354</v>
       </c>
       <c r="T21" t="n">
-        <v>1646.959067601334</v>
+        <v>1724.128254168478</v>
       </c>
       <c r="U21" t="n">
-        <v>1586.029240899965</v>
+        <v>1526.856287033521</v>
       </c>
       <c r="V21" t="n">
-        <v>1372.317713892999</v>
+        <v>1313.144760026555</v>
       </c>
       <c r="W21" t="n">
-        <v>1159.084545629327</v>
+        <v>1099.911591762884</v>
       </c>
       <c r="X21" t="n">
-        <v>982.7585637682201</v>
+        <v>923.5856099017766</v>
       </c>
       <c r="Y21" t="n">
-        <v>823.3566041320502</v>
+        <v>764.1836502656066</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1000.794225176551</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="C22" t="n">
-        <v>829.7008527382677</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="D22" t="n">
-        <v>670.2062080611777</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="E22" t="n">
-        <v>509.2953929294971</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="F22" t="n">
         <v>344.6642670400884</v>
@@ -5904,58 +5904,58 @@
         <v>178.4185949325979</v>
       </c>
       <c r="H22" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I22" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J22" t="n">
-        <v>56.44525221744571</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K22" t="n">
-        <v>121.4142546540235</v>
+        <v>325.4047277643195</v>
       </c>
       <c r="L22" t="n">
-        <v>527.7131151472371</v>
+        <v>417.7244770225101</v>
       </c>
       <c r="M22" t="n">
-        <v>971.3373006910322</v>
+        <v>861.3486625663052</v>
       </c>
       <c r="N22" t="n">
-        <v>1402.865873330361</v>
+        <v>1292.877235205633</v>
       </c>
       <c r="O22" t="n">
-        <v>1801.612894797479</v>
+        <v>1691.624256672752</v>
       </c>
       <c r="P22" t="n">
-        <v>1865.488871500339</v>
+        <v>1755.500233375612</v>
       </c>
       <c r="Q22" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="R22" t="n">
-        <v>1847.103336716822</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="S22" t="n">
-        <v>1692.299294672957</v>
+        <v>1828.054275089819</v>
       </c>
       <c r="T22" t="n">
-        <v>1692.299294672957</v>
+        <v>1592.798426198104</v>
       </c>
       <c r="U22" t="n">
-        <v>1692.299294672957</v>
+        <v>1310.055081596972</v>
       </c>
       <c r="V22" t="n">
-        <v>1692.299294672957</v>
+        <v>1036.169336536494</v>
       </c>
       <c r="W22" t="n">
-        <v>1413.229630181831</v>
+        <v>757.099672045368</v>
       </c>
       <c r="X22" t="n">
-        <v>1413.229630181831</v>
+        <v>757.099672045368</v>
       </c>
       <c r="Y22" t="n">
-        <v>1188.493931570596</v>
+        <v>532.3639734341327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>871.641439679111</v>
+        <v>633.2080962842724</v>
       </c>
       <c r="C23" t="n">
-        <v>461.5168489923812</v>
+        <v>633.2080962842724</v>
       </c>
       <c r="D23" t="n">
-        <v>461.5168489923812</v>
+        <v>633.2080962842724</v>
       </c>
       <c r="E23" t="n">
-        <v>461.5168489923812</v>
+        <v>633.2080962842724</v>
       </c>
       <c r="F23" t="n">
-        <v>40.48643694606873</v>
+        <v>633.2080962842724</v>
       </c>
       <c r="G23" t="n">
-        <v>40.48643694606873</v>
+        <v>226.8297381861563</v>
       </c>
       <c r="H23" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I23" t="n">
-        <v>44.64574590746565</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K23" t="n">
-        <v>372.2593058752963</v>
+        <v>372.259305875296</v>
       </c>
       <c r="L23" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879073</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N23" t="n">
         <v>1272.218803576256</v>
@@ -6019,22 +6019,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T23" t="n">
-        <v>1812.402164354919</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U23" t="n">
-        <v>1656.04513837499</v>
+        <v>1767.449349643671</v>
       </c>
       <c r="V23" t="n">
-        <v>1656.04513837499</v>
+        <v>1417.611794980151</v>
       </c>
       <c r="W23" t="n">
-        <v>1272.284837510158</v>
+        <v>1033.85149411532</v>
       </c>
       <c r="X23" t="n">
-        <v>871.641439679111</v>
+        <v>633.2080962842724</v>
       </c>
       <c r="Y23" t="n">
-        <v>871.641439679111</v>
+        <v>633.2080962842724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090094</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579551</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773475</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696755</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521801</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G24" t="n">
         <v>99.09057352692761</v>
@@ -6065,28 +6065,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I24" t="n">
-        <v>43.01083102505506</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J24" t="n">
-        <v>352.2490680648406</v>
+        <v>128.1484679399047</v>
       </c>
       <c r="K24" t="n">
-        <v>752.3247263384933</v>
+        <v>271.8704604711962</v>
       </c>
       <c r="L24" t="n">
-        <v>964.3373108601505</v>
+        <v>483.8830449928535</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.585528619119</v>
+        <v>739.1312627518215</v>
       </c>
       <c r="N24" t="n">
-        <v>1487.424908378268</v>
+        <v>1006.970642510971</v>
       </c>
       <c r="O24" t="n">
-        <v>1723.446597132247</v>
+        <v>1242.99233126495</v>
       </c>
       <c r="P24" t="n">
-        <v>1905.04491856843</v>
+        <v>1744.01198847255</v>
       </c>
       <c r="Q24" t="n">
         <v>2006.22131270252</v>
@@ -6101,19 +6101,19 @@
         <v>1785.412051570318</v>
       </c>
       <c r="U24" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W24" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.873282080766</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.471322444596</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>767.2893218560068</v>
+        <v>701.9018751167391</v>
       </c>
       <c r="C25" t="n">
-        <v>596.1959494177233</v>
+        <v>530.8085026784556</v>
       </c>
       <c r="D25" t="n">
-        <v>596.1959494177233</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="E25" t="n">
-        <v>596.1959494177233</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F25" t="n">
-        <v>431.5648235283147</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I25" t="n">
         <v>40.48643694606873</v>
@@ -6150,49 +6150,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K25" t="n">
-        <v>195.9123523564644</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L25" t="n">
-        <v>609.4061314311003</v>
+        <v>717.16614330356</v>
       </c>
       <c r="M25" t="n">
-        <v>1060.616349816981</v>
+        <v>823.4100121751551</v>
       </c>
       <c r="N25" t="n">
-        <v>1499.550576393027</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O25" t="n">
-        <v>1905.137917910529</v>
+        <v>1667.931580268703</v>
       </c>
       <c r="P25" t="n">
-        <v>1974.866970118295</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R25" t="n">
-        <v>2006.052008648471</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S25" t="n">
-        <v>1838.030257407706</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="T25" t="n">
-        <v>1602.985382721019</v>
+        <v>1583.378488176655</v>
       </c>
       <c r="U25" t="n">
-        <v>1320.244731407611</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V25" t="n">
-        <v>1046.358986347132</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="W25" t="n">
-        <v>767.2893218560068</v>
+        <v>889.6015815107835</v>
       </c>
       <c r="X25" t="n">
-        <v>767.2893218560068</v>
+        <v>889.6015815107835</v>
       </c>
       <c r="Y25" t="n">
-        <v>767.2893218560068</v>
+        <v>889.6015815107835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>861.2050105272881</v>
+        <v>500.3768416212487</v>
       </c>
       <c r="C26" t="n">
-        <v>861.2050105272881</v>
+        <v>500.3768416212487</v>
       </c>
       <c r="D26" t="n">
-        <v>861.2050105272881</v>
+        <v>500.3768416212487</v>
       </c>
       <c r="E26" t="n">
-        <v>446.8647950441849</v>
+        <v>500.3768416212487</v>
       </c>
       <c r="F26" t="n">
-        <v>446.8647950441849</v>
+        <v>500.3768416212487</v>
       </c>
       <c r="G26" t="n">
-        <v>40.48643694606873</v>
+        <v>93.99848352313256</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606873</v>
@@ -6235,16 +6235,16 @@
         <v>641.1850750879078</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O26" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P26" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q26" t="n">
         <v>1966.084838463273</v>
@@ -6256,22 +6256,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T26" t="n">
-        <v>1878.136242515063</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U26" t="n">
-        <v>1621.263744855297</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V26" t="n">
-        <v>1271.426190191778</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="W26" t="n">
-        <v>1271.426190191778</v>
+        <v>1301.956912504206</v>
       </c>
       <c r="X26" t="n">
-        <v>1271.426190191778</v>
+        <v>901.3135146731586</v>
       </c>
       <c r="Y26" t="n">
-        <v>1271.426190191778</v>
+        <v>500.3768416212487</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I27" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J27" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K27" t="n">
-        <v>264.5117467880021</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L27" t="n">
-        <v>476.5243313096595</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M27" t="n">
-        <v>731.7725490686275</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N27" t="n">
-        <v>999.6119288277768</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O27" t="n">
-        <v>1235.633617581756</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P27" t="n">
-        <v>1417.231939017939</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q27" t="n">
-        <v>1918.25159622554</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R27" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S27" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T27" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U27" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V27" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W27" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1008.286877000281</v>
+        <v>490.5013510001851</v>
       </c>
       <c r="C28" t="n">
-        <v>837.1935045619974</v>
+        <v>490.5013510001851</v>
       </c>
       <c r="D28" t="n">
-        <v>677.6988598849075</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="E28" t="n">
-        <v>516.788044753227</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F28" t="n">
-        <v>352.1569188638183</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G28" t="n">
-        <v>185.9606236979302</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H28" t="n">
-        <v>45.72503939956846</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I28" t="n">
         <v>40.48643694606873</v>
@@ -6387,22 +6387,22 @@
         <v>62.60916429909252</v>
       </c>
       <c r="K28" t="n">
-        <v>147.5068139275422</v>
+        <v>219.6034981877564</v>
       </c>
       <c r="L28" t="n">
-        <v>561.0005930021782</v>
+        <v>633.0972772623925</v>
       </c>
       <c r="M28" t="n">
-        <v>1012.210811388059</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N28" t="n">
-        <v>1451.145037964105</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O28" t="n">
-        <v>1541.657620062866</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P28" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q28" t="n">
         <v>2024.321847303436</v>
@@ -6414,22 +6414,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.321847303436</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U28" t="n">
-        <v>2024.321847303436</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V28" t="n">
-        <v>1750.436102242958</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W28" t="n">
-        <v>1471.366437751833</v>
+        <v>953.5809117517369</v>
       </c>
       <c r="X28" t="n">
-        <v>1233.022575611516</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="Y28" t="n">
-        <v>1008.286877000281</v>
+        <v>490.5013510001851</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>795.4709323671441</v>
+        <v>737.4533452648798</v>
       </c>
       <c r="C29" t="n">
-        <v>454.826652429172</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="D29" t="n">
-        <v>454.826652429172</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E29" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F29" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G29" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H29" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L29" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N29" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O29" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P29" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q29" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R29" t="n">
         <v>2024.321847303436</v>
@@ -6493,22 +6493,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T29" t="n">
-        <v>1812.402164354919</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U29" t="n">
-        <v>1555.529666695153</v>
+        <v>1871.694598624278</v>
       </c>
       <c r="V29" t="n">
-        <v>1205.692112031634</v>
+        <v>1521.857043960759</v>
       </c>
       <c r="W29" t="n">
-        <v>1205.692112031634</v>
+        <v>1138.096743095927</v>
       </c>
       <c r="X29" t="n">
-        <v>1205.692112031634</v>
+        <v>737.4533452648798</v>
       </c>
       <c r="Y29" t="n">
-        <v>1205.692112031634</v>
+        <v>737.4533452648798</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H30" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I30" t="n">
-        <v>62.57863487475245</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J30" t="n">
-        <v>371.8168719145381</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K30" t="n">
-        <v>519.1444488900414</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L30" t="n">
-        <v>731.1570334116988</v>
+        <v>564.4940477866402</v>
       </c>
       <c r="M30" t="n">
-        <v>986.4052511706668</v>
+        <v>819.7422655456082</v>
       </c>
       <c r="N30" t="n">
-        <v>1487.424908378267</v>
+        <v>1087.581645304758</v>
       </c>
       <c r="O30" t="n">
-        <v>1723.446597132247</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P30" t="n">
-        <v>1905.04491856843</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q30" t="n">
         <v>2006.22131270252</v>
@@ -6569,25 +6569,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S30" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T30" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U30" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V30" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W30" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>767.2893218560068</v>
+        <v>542.4072304396491</v>
       </c>
       <c r="C31" t="n">
-        <v>596.1959494177233</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="D31" t="n">
-        <v>596.1959494177233</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="E31" t="n">
-        <v>596.1959494177233</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F31" t="n">
-        <v>431.5648235283147</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G31" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H31" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I31" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J31" t="n">
-        <v>62.60916429909251</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K31" t="n">
-        <v>130.910988725128</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L31" t="n">
-        <v>544.404767799764</v>
+        <v>717.16614330356</v>
       </c>
       <c r="M31" t="n">
-        <v>995.6149861856446</v>
+        <v>823.4100121751551</v>
       </c>
       <c r="N31" t="n">
-        <v>1434.549212761691</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O31" t="n">
-        <v>1840.136554279192</v>
+        <v>1667.931580268703</v>
       </c>
       <c r="P31" t="n">
-        <v>1998.558115949587</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q31" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T31" t="n">
-        <v>1583.378488176654</v>
+        <v>1749.812893959132</v>
       </c>
       <c r="U31" t="n">
-        <v>1300.637836863246</v>
+        <v>1467.072242645723</v>
       </c>
       <c r="V31" t="n">
-        <v>1026.752091802768</v>
+        <v>1193.186497585245</v>
       </c>
       <c r="W31" t="n">
-        <v>954.9890282500512</v>
+        <v>1193.186497585245</v>
       </c>
       <c r="X31" t="n">
-        <v>954.9890282500512</v>
+        <v>954.8426354449288</v>
       </c>
       <c r="Y31" t="n">
-        <v>954.9890282500512</v>
+        <v>730.1069368336935</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.100667638947</v>
+        <v>489.1439208921282</v>
       </c>
       <c r="C32" t="n">
-        <v>1203.976076952217</v>
+        <v>489.1439208921282</v>
       </c>
       <c r="D32" t="n">
-        <v>875.8570644754845</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="E32" t="n">
-        <v>461.5168489923812</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="F32" t="n">
-        <v>40.48643694606873</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="G32" t="n">
         <v>40.48643694606873</v>
@@ -6697,25 +6697,25 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J32" t="n">
         <v>167.5334271492899</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752967</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L32" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O32" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P32" t="n">
         <v>1806.502667397418</v>
@@ -6736,16 +6736,16 @@
         <v>2024.321847303436</v>
       </c>
       <c r="V32" t="n">
-        <v>2024.321847303436</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="W32" t="n">
-        <v>2024.321847303436</v>
+        <v>1290.723991775086</v>
       </c>
       <c r="X32" t="n">
-        <v>2024.321847303436</v>
+        <v>890.0805939440381</v>
       </c>
       <c r="Y32" t="n">
-        <v>2024.321847303436</v>
+        <v>489.1439208921282</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090094</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579551</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773475</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696755</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521802</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692753</v>
       </c>
       <c r="H33" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I33" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J33" t="n">
-        <v>274.8615778815879</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K33" t="n">
-        <v>418.5835704128795</v>
+        <v>664.3550098615118</v>
       </c>
       <c r="L33" t="n">
-        <v>630.5961549345368</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M33" t="n">
         <v>1131.615812142137</v>
@@ -6806,25 +6806,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S33" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T33" t="n">
         <v>1785.412051570318</v>
       </c>
       <c r="U33" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V33" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W33" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.873282080766</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.471322444596</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.8016446061407</v>
+        <v>322.4795997594207</v>
       </c>
       <c r="C34" t="n">
-        <v>131.7082721678572</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="D34" t="n">
-        <v>40.48643694606873</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="E34" t="n">
-        <v>40.48643694606873</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="F34" t="n">
         <v>40.48643694606873</v>
@@ -6861,22 +6861,22 @@
         <v>62.60916429909252</v>
       </c>
       <c r="K34" t="n">
-        <v>219.6034981877564</v>
+        <v>337.1911823108422</v>
       </c>
       <c r="L34" t="n">
-        <v>633.0972772623925</v>
+        <v>506.8233170565554</v>
       </c>
       <c r="M34" t="n">
-        <v>1084.307495648273</v>
+        <v>958.033535442436</v>
       </c>
       <c r="N34" t="n">
-        <v>1523.241722224319</v>
+        <v>1396.967762018482</v>
       </c>
       <c r="O34" t="n">
-        <v>1928.829063741821</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P34" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q34" t="n">
         <v>2024.321847303436</v>
@@ -6885,25 +6885,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T34" t="n">
-        <v>1789.276972616749</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U34" t="n">
-        <v>1506.536321303341</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V34" t="n">
-        <v>1232.650576242863</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W34" t="n">
-        <v>953.5809117517369</v>
+        <v>785.5591605109726</v>
       </c>
       <c r="X34" t="n">
-        <v>715.2370496114204</v>
+        <v>547.215298370656</v>
       </c>
       <c r="Y34" t="n">
-        <v>490.5013510001851</v>
+        <v>322.4795997594207</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>489.1439208921278</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="C35" t="n">
-        <v>489.1439208921278</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="D35" t="n">
-        <v>489.1439208921278</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="E35" t="n">
-        <v>489.1439208921278</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="F35" t="n">
-        <v>489.1439208921278</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G35" t="n">
-        <v>82.76556279401166</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H35" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K35" t="n">
         <v>372.2593058752963</v>
@@ -6952,13 +6952,13 @@
         <v>1272.218803576257</v>
       </c>
       <c r="O35" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P35" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q35" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R35" t="n">
         <v>2024.321847303436</v>
@@ -6967,22 +6967,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303436</v>
+        <v>1832.536861017143</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303436</v>
+        <v>1575.664363357377</v>
       </c>
       <c r="V35" t="n">
-        <v>1674.484292639916</v>
+        <v>1225.826808693858</v>
       </c>
       <c r="W35" t="n">
-        <v>1290.723991775085</v>
+        <v>842.0665078290261</v>
       </c>
       <c r="X35" t="n">
-        <v>890.0805939440377</v>
+        <v>441.4231099979787</v>
       </c>
       <c r="Y35" t="n">
-        <v>489.1439208921278</v>
+        <v>40.48643694606873</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C36" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D36" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E36" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F36" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H36" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J36" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K36" t="n">
-        <v>252.3026566214989</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L36" t="n">
-        <v>464.3152411431562</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M36" t="n">
-        <v>719.5634589021244</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N36" t="n">
-        <v>987.4028386612736</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O36" t="n">
-        <v>1223.424527415253</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P36" t="n">
-        <v>1505.20165549492</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q36" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R36" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S36" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T36" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U36" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V36" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W36" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>604.3795100906896</v>
+        <v>376.2109352737609</v>
       </c>
       <c r="C37" t="n">
-        <v>604.3795100906896</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="D37" t="n">
-        <v>532.2246731330461</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="E37" t="n">
-        <v>371.3138580013656</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="F37" t="n">
-        <v>206.6827321119568</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G37" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H37" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I37" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J37" t="n">
-        <v>62.60916429909251</v>
+        <v>62.60916429909252</v>
       </c>
       <c r="K37" t="n">
-        <v>303.6723642289235</v>
+        <v>303.672364228924</v>
       </c>
       <c r="L37" t="n">
-        <v>717.1661433035596</v>
+        <v>717.16614330356</v>
       </c>
       <c r="M37" t="n">
-        <v>823.4100121751546</v>
+        <v>823.4100121751551</v>
       </c>
       <c r="N37" t="n">
         <v>1262.344238751201</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.931580268702</v>
+        <v>1667.931580268703</v>
       </c>
       <c r="P37" t="n">
-        <v>1998.558115949587</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q37" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T37" t="n">
-        <v>1583.378488176654</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="U37" t="n">
-        <v>1583.378488176654</v>
+        <v>1573.559444749263</v>
       </c>
       <c r="V37" t="n">
-        <v>1309.492743116176</v>
+        <v>1299.673699688785</v>
       </c>
       <c r="W37" t="n">
-        <v>1030.42307862505</v>
+        <v>1026.990202419357</v>
       </c>
       <c r="X37" t="n">
-        <v>792.0792164847339</v>
+        <v>788.6463402790406</v>
       </c>
       <c r="Y37" t="n">
-        <v>792.0792164847339</v>
+        <v>563.9106416678053</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1640.561546438605</v>
+        <v>339.556277061122</v>
       </c>
       <c r="C38" t="n">
-        <v>1280.320994382424</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="D38" t="n">
-        <v>875.8570644754845</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E38" t="n">
-        <v>461.5168489923812</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F38" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G38" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H38" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746555</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1850750879082</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501312</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N38" t="n">
         <v>1272.218803576257</v>
@@ -7192,7 +7192,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P38" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q38" t="n">
         <v>1966.084838463273</v>
@@ -7201,25 +7201,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U38" t="n">
-        <v>2024.321847303436</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V38" t="n">
-        <v>2024.321847303436</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="W38" t="n">
-        <v>1640.561546438605</v>
+        <v>740.1996748921695</v>
       </c>
       <c r="X38" t="n">
-        <v>1640.561546438605</v>
+        <v>339.556277061122</v>
       </c>
       <c r="Y38" t="n">
-        <v>1640.561546438605</v>
+        <v>339.556277061122</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090094</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C39" t="n">
-        <v>551.1732185579551</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773475</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696755</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521802</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G39" t="n">
         <v>99.09057352692763</v>
@@ -7253,25 +7253,25 @@
         <v>62.57863487475247</v>
       </c>
       <c r="J39" t="n">
-        <v>287.4527398817692</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K39" t="n">
-        <v>431.1747324130607</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L39" t="n">
-        <v>643.1873169347181</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M39" t="n">
-        <v>898.4355346936861</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N39" t="n">
-        <v>1399.455191901287</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O39" t="n">
-        <v>1635.476880655266</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P39" t="n">
-        <v>1817.075202091449</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q39" t="n">
         <v>1918.251596225539</v>
@@ -7280,25 +7280,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S39" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T39" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U39" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V39" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W39" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.873282080766</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.471322444596</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>377.7761045502403</v>
+        <v>490.5013510001851</v>
       </c>
       <c r="C40" t="n">
-        <v>206.6827321119568</v>
+        <v>319.4079785619016</v>
       </c>
       <c r="D40" t="n">
-        <v>206.6827321119568</v>
+        <v>319.4079785619016</v>
       </c>
       <c r="E40" t="n">
-        <v>206.6827321119568</v>
+        <v>319.4079785619016</v>
       </c>
       <c r="F40" t="n">
         <v>206.6827321119568</v>
@@ -7350,34 +7350,34 @@
         <v>1905.137917910529</v>
       </c>
       <c r="P40" t="n">
-        <v>1974.866970118296</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q40" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>1818.423362863342</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T40" t="n">
-        <v>1583.378488176655</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U40" t="n">
-        <v>1300.637836863246</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V40" t="n">
-        <v>1026.752091802768</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W40" t="n">
-        <v>747.6824273116424</v>
+        <v>953.5809117517369</v>
       </c>
       <c r="X40" t="n">
-        <v>509.3385651713258</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="Y40" t="n">
-        <v>377.7761045502403</v>
+        <v>490.5013510001851</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>812.5205967559889</v>
+        <v>821.9318111668026</v>
       </c>
       <c r="C41" t="n">
-        <v>461.5168489923811</v>
+        <v>821.9318111668026</v>
       </c>
       <c r="D41" t="n">
-        <v>461.5168489923811</v>
+        <v>821.9318111668026</v>
       </c>
       <c r="E41" t="n">
-        <v>461.5168489923811</v>
+        <v>821.9318111668026</v>
       </c>
       <c r="F41" t="n">
-        <v>40.48643694606871</v>
+        <v>400.9013991204902</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H41" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I41" t="n">
         <v>44.64574590746543</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752968</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501309</v>
       </c>
       <c r="N41" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P41" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q41" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R41" t="n">
         <v>2024.321847303436</v>
@@ -7441,22 +7441,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T41" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.321847303436</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.321847303436</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="W41" t="n">
-        <v>2024.321847303436</v>
+        <v>821.9318111668026</v>
       </c>
       <c r="X41" t="n">
-        <v>1623.678449472388</v>
+        <v>821.9318111668026</v>
       </c>
       <c r="Y41" t="n">
-        <v>1222.741776420478</v>
+        <v>821.9318111668026</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H42" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I42" t="n">
-        <v>62.57863487475245</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J42" t="n">
-        <v>371.8168719145381</v>
+        <v>352.2490680648407</v>
       </c>
       <c r="K42" t="n">
-        <v>515.5388644458296</v>
+        <v>495.9710605961322</v>
       </c>
       <c r="L42" t="n">
-        <v>727.551448967487</v>
+        <v>707.9836451177896</v>
       </c>
       <c r="M42" t="n">
-        <v>982.799666726455</v>
+        <v>963.2318628767576</v>
       </c>
       <c r="N42" t="n">
-        <v>1250.639046485604</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.660735239584</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P42" t="n">
-        <v>1905.04491856843</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q42" t="n">
         <v>2006.22131270252</v>
@@ -7517,25 +7517,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S42" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T42" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U42" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V42" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W42" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>888.5744312266193</v>
+        <v>923.0636557753687</v>
       </c>
       <c r="C43" t="n">
-        <v>717.4810587883358</v>
+        <v>751.9702833370852</v>
       </c>
       <c r="D43" t="n">
-        <v>557.9864141112457</v>
+        <v>592.4756386599952</v>
       </c>
       <c r="E43" t="n">
-        <v>397.0755989795652</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="F43" t="n">
-        <v>232.4444730901565</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G43" t="n">
-        <v>66.24817792426836</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H43" t="n">
-        <v>66.24817792426836</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I43" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J43" t="n">
         <v>127.6105279304289</v>
@@ -7575,46 +7575,46 @@
         <v>195.9123523564644</v>
       </c>
       <c r="L43" t="n">
-        <v>295.4270201960774</v>
+        <v>609.4061314311004</v>
       </c>
       <c r="M43" t="n">
-        <v>746.6372385819579</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N43" t="n">
-        <v>1185.571465158004</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O43" t="n">
-        <v>1591.158806675506</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P43" t="n">
-        <v>1921.785342356391</v>
+        <v>1974.866970118296</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T43" t="n">
-        <v>1818.423362863341</v>
+        <v>1983.495415251616</v>
       </c>
       <c r="U43" t="n">
-        <v>1818.423362863341</v>
+        <v>1700.754763938208</v>
       </c>
       <c r="V43" t="n">
-        <v>1818.423362863341</v>
+        <v>1426.86901887773</v>
       </c>
       <c r="W43" t="n">
-        <v>1539.353698372216</v>
+        <v>1147.799354386604</v>
       </c>
       <c r="X43" t="n">
-        <v>1301.009836231899</v>
+        <v>1147.799354386604</v>
       </c>
       <c r="Y43" t="n">
-        <v>1076.274137620664</v>
+        <v>923.0636557753687</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1007.390615315662</v>
+        <v>864.9512431159019</v>
       </c>
       <c r="C44" t="n">
-        <v>597.2660246289321</v>
+        <v>454.826652429172</v>
       </c>
       <c r="D44" t="n">
-        <v>597.2660246289321</v>
+        <v>454.826652429172</v>
       </c>
       <c r="E44" t="n">
-        <v>182.9258091458288</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="F44" t="n">
-        <v>182.9258091458288</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G44" t="n">
         <v>40.48643694606873</v>
@@ -7666,7 +7666,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P44" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
         <v>1966.084838463273</v>
@@ -7681,19 +7681,19 @@
         <v>2024.321847303436</v>
       </c>
       <c r="U44" t="n">
-        <v>1767.449349643671</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V44" t="n">
-        <v>1417.611794980151</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W44" t="n">
-        <v>1417.611794980151</v>
+        <v>1640.561546438605</v>
       </c>
       <c r="X44" t="n">
-        <v>1417.611794980151</v>
+        <v>1640.561546438605</v>
       </c>
       <c r="Y44" t="n">
-        <v>1417.611794980151</v>
+        <v>1275.172422780391</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090097</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579554</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773478</v>
       </c>
       <c r="E45" t="n">
         <v>313.7832447696752</v>
@@ -7724,28 +7724,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I45" t="n">
-        <v>55.21992119155783</v>
+        <v>62.57863487475248</v>
       </c>
       <c r="J45" t="n">
-        <v>120.7897542567102</v>
+        <v>128.1484679399048</v>
       </c>
       <c r="K45" t="n">
-        <v>264.5117467880017</v>
+        <v>271.8704604711964</v>
       </c>
       <c r="L45" t="n">
-        <v>476.5243313096591</v>
+        <v>483.8830449928538</v>
       </c>
       <c r="M45" t="n">
-        <v>731.7725490686273</v>
+        <v>739.131262751822</v>
       </c>
       <c r="N45" t="n">
-        <v>999.6119288277766</v>
+        <v>1006.970642510971</v>
       </c>
       <c r="O45" t="n">
-        <v>1235.633617581756</v>
+        <v>1242.992331264951</v>
       </c>
       <c r="P45" t="n">
-        <v>1417.231939017939</v>
+        <v>1424.590652701134</v>
       </c>
       <c r="Q45" t="n">
         <v>1918.25159622554</v>
@@ -7754,25 +7754,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S45" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T45" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U45" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V45" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W45" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941874</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807663</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445964</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>509.338565171326</v>
+        <v>785.5591605109728</v>
       </c>
       <c r="C46" t="n">
-        <v>509.338565171326</v>
+        <v>785.5591605109728</v>
       </c>
       <c r="D46" t="n">
-        <v>349.843920494236</v>
+        <v>626.0645158338828</v>
       </c>
       <c r="E46" t="n">
-        <v>188.9331053625555</v>
+        <v>465.1537007022022</v>
       </c>
       <c r="F46" t="n">
-        <v>40.48643694606873</v>
+        <v>300.5225748127935</v>
       </c>
       <c r="G46" t="n">
-        <v>40.48643694606873</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I46" t="n">
         <v>40.48643694606873</v>
@@ -7830,28 +7830,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R46" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>1818.423362863342</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T46" t="n">
-        <v>1583.378488176655</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U46" t="n">
-        <v>1300.637836863246</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V46" t="n">
-        <v>1026.752091802768</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W46" t="n">
-        <v>747.6824273116426</v>
+        <v>785.5591605109728</v>
       </c>
       <c r="X46" t="n">
-        <v>509.338565171326</v>
+        <v>785.5591605109728</v>
       </c>
       <c r="Y46" t="n">
-        <v>509.338565171326</v>
+        <v>785.5591605109728</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>159.4855993964096</v>
+        <v>159.485599396409</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>199.368877384301</v>
       </c>
       <c r="L13" t="n">
-        <v>181.4890873650643</v>
+        <v>98.25035392931866</v>
       </c>
       <c r="M13" t="n">
-        <v>178.0868137369351</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>68.86604784284448</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>187.5041632199794</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>199.9282760679556</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.150849970123438</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.701128679829125</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>226.655258450804</v>
       </c>
       <c r="K15" t="n">
-        <v>82.44818669223196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,16 +9087,16 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>127.7806681928365</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>284.9091820802213</v>
+        <v>284.9091820802217</v>
       </c>
       <c r="M16" t="n">
-        <v>279.9325392941893</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>71.7999208288941</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>110.1835519956753</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.1835519956759</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>63.67925727874028</v>
       </c>
       <c r="O19" t="n">
-        <v>38.27470087324397</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>218.8073099014123</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.1835519956759</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.312848965068682</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>111.099634469421</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>258.9430967094557</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>322.6478139105228</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>162.6595253493735</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
-        <v>317.1506174091142</v>
+        <v>217.6352823452208</v>
       </c>
       <c r="M25" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
@@ -9813,10 +9813,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.93045033463898</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>12.33241430959924</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>403.8820839126367</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>16.7634598004183</v>
+        <v>89.58839339659433</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
@@ -10047,13 +10047,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>81.42525534725911</v>
       </c>
       <c r="K30" t="n">
-        <v>3.642004489102874</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5356337863142</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>403.8820839126366</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>217.6352823452207</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10287,7 +10287,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>89.58839339659416</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>167.9605189811925</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>248.2539792410428</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>89.58839339659433</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>317.1506174091142</v>
+        <v>70.82572414757601</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>101.1907137812965</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>403.8820839126365</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>174.5064399028238</v>
+        <v>174.5064399028242</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>160.9134060018833</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>23.93045033463852</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.93045033463851</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>239.1776382754171</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>258.9430967094554</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11235,10 +11235,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.54825615474422</v>
+        <v>23.93045033463851</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>12.33241430959874</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>403.8820839126367</v>
+        <v>396.4490397881976</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -23260,19 +23260,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>212.6379289566783</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>190.6402558541756</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>197.2635504517526</v>
+        <v>197.2635504517528</v>
       </c>
       <c r="G11" t="n">
-        <v>183.6944827100386</v>
+        <v>183.6944827100387</v>
       </c>
       <c r="H11" t="n">
         <v>293.5644734679276</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8998645763261</v>
+        <v>122.768975051799</v>
       </c>
       <c r="U11" t="n">
         <v>254.3786899365281</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>177.0804063786404</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23339,19 +23339,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>19.87348157970672</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>62.85721528991137</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>93.09630611656611</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>154.7508334693185</v>
+        <v>1.662863265689936</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23430,10 +23430,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>61.32315873764999</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.5679993783892</v>
+        <v>136.7888062808603</v>
       </c>
       <c r="I13" t="n">
         <v>96.43258009724632</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.3856723961843</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T13" t="n">
         <v>234.4892545020035</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9361575053235</v>
+        <v>60.379600031227</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23481,10 +23481,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>16.40386604481691</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.93178415102625</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.18029857134098</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.8167584554374</v>
+        <v>50.87808915893345</v>
       </c>
       <c r="H14" t="n">
         <v>289.1168857139008</v>
       </c>
       <c r="I14" t="n">
-        <v>15.15912409817798</v>
+        <v>15.15912409817795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.35833140595498</v>
+        <v>92.35833140595497</v>
       </c>
       <c r="T14" t="n">
-        <v>211.9987963089513</v>
+        <v>150.7556736112032</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3439473982323</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>69.93511793982282</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>44.69829455623341</v>
+        <v>44.69829455623301</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.98863702488723</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>6.892138544188242</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>104.9441556059131</v>
@@ -23630,19 +23630,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>72.20909057063865</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.22383909067631</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.8360162103025</v>
       </c>
       <c r="I16" t="n">
-        <v>42.71607277228249</v>
+        <v>90.57429756142739</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.62658369541032</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>170.2672434688373</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.6569108527184</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>225.379167609232</v>
       </c>
       <c r="G17" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H17" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>104.0794837659423</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23816,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>15.69083118165597</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>19.25053282645012</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>118.1266611131441</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T19" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.2340708380717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>137.6289307393171</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U20" t="n">
-        <v>231.7589040828181</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>76.39749470147237</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>134.9787190292512</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S22" t="n">
-        <v>13.93743247839632</v>
+        <v>108.638932045265</v>
       </c>
       <c r="T22" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24217,13 +24217,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>99.49402622807364</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
-        <v>99.51031696303821</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.41082559892074</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>140.4999626571496</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24451,7 +24451,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>230.9969683444671</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>145.9915522904288</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39.90408016148778</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>78.61382561785142</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>68.78550764127021</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24697,7 +24697,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>103.2027964908013</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>127.2720958573157</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>205.2335349290251</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>75.58146825590518</v>
+        <v>358.5629560184061</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>283.9738944557603</v>
@@ -24976,16 +24976,16 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.19402215919686</v>
       </c>
       <c r="D34" t="n">
-        <v>67.59008136074847</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5343322142292</v>
@@ -25125,7 +25125,7 @@
         <v>37.4979658673368</v>
       </c>
       <c r="S34" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
-        <v>242.1175598662968</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8004861190321</v>
+        <v>19.93334969560146</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>86.466409642252</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
         <v>138.8332284553781</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>6.322305549480632</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>49.38519824424355</v>
+        <v>393.9180975217202</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25560,7 +25560,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>51.38682064506934</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>92.24150561024834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>58.52963449389091</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.3145745171349</v>
+        <v>45.50376196445774</v>
       </c>
       <c r="H41" t="n">
         <v>283.9738944557603</v>
@@ -25681,22 +25681,22 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>58.29591847839849</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T43" t="n">
-        <v>232.6944259398202</v>
+        <v>192.2762582085185</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>261.2995960393725</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
         <v>283.9738944557603</v>
@@ -25921,19 +25921,19 @@
         <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>35.19207389975924</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>16.02261289819273</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>129.7318262283659</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416180.5531523985</v>
+        <v>416180.5531523986</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>512065.9032159135</v>
+        <v>512065.9032159136</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>512065.9032159136</v>
+        <v>512065.9032159135</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>539063.8499663946</v>
+        <v>539063.8499663945</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>539063.8499663944</v>
+        <v>539063.8499663945</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>539063.8499663945</v>
+        <v>539063.8499663944</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>539063.8499663946</v>
+        <v>539063.8499663945</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>43652.04548115403</v>
       </c>
       <c r="E2" t="n">
-        <v>105050.9142481638</v>
+        <v>105050.9142481637</v>
       </c>
       <c r="F2" t="n">
         <v>140374.8114472528</v>
@@ -26334,16 +26334,16 @@
         <v>172357.7686344383</v>
       </c>
       <c r="I2" t="n">
-        <v>181341.8264785712</v>
+        <v>181341.8264785713</v>
       </c>
       <c r="J2" t="n">
-        <v>181341.8264785712</v>
+        <v>181341.8264785711</v>
       </c>
       <c r="K2" t="n">
         <v>181341.8264785712</v>
       </c>
       <c r="L2" t="n">
-        <v>181341.8264785713</v>
+        <v>181341.8264785712</v>
       </c>
       <c r="M2" t="n">
         <v>181341.8264785712</v>
@@ -26377,16 +26377,16 @@
         <v>343333.6099712366</v>
       </c>
       <c r="F3" t="n">
-        <v>123320.7774558686</v>
+        <v>123320.7774558689</v>
       </c>
       <c r="G3" t="n">
-        <v>108898.4564269784</v>
+        <v>108898.4564269781</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29521.35438355058</v>
+        <v>29521.35438355059</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>54714.37234877476</v>
       </c>
       <c r="N3" t="n">
-        <v>32423.95350232667</v>
+        <v>32423.95350232679</v>
       </c>
       <c r="O3" t="n">
-        <v>28844.76333944686</v>
+        <v>28844.76333944682</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>26676.25001626079</v>
       </c>
       <c r="E4" t="n">
-        <v>6988.988371798156</v>
+        <v>6988.988371798146</v>
       </c>
       <c r="F4" t="n">
-        <v>10958.50423287831</v>
+        <v>10958.50423287833</v>
       </c>
       <c r="G4" t="n">
-        <v>14552.58263037901</v>
+        <v>14552.58263037902</v>
       </c>
       <c r="H4" t="n">
         <v>14552.58263037902</v>
@@ -26441,22 +26441,22 @@
         <v>15626.3108008939</v>
       </c>
       <c r="J4" t="n">
-        <v>15626.3108008939</v>
+        <v>15626.31080089389</v>
       </c>
       <c r="K4" t="n">
-        <v>15626.31080089388</v>
+        <v>15626.31080089389</v>
       </c>
       <c r="L4" t="n">
         <v>15626.31080089389</v>
       </c>
       <c r="M4" t="n">
-        <v>15626.31080089388</v>
+        <v>15626.31080089389</v>
       </c>
       <c r="N4" t="n">
         <v>15626.31080089389</v>
       </c>
       <c r="O4" t="n">
-        <v>15626.31080089388</v>
+        <v>15626.31080089389</v>
       </c>
       <c r="P4" t="n">
         <v>15626.31080089389</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>20886.4501516283</v>
+        <v>20886.45015162829</v>
       </c>
       <c r="F5" t="n">
-        <v>31290.28379472689</v>
+        <v>31290.28379472691</v>
       </c>
       <c r="G5" t="n">
         <v>40710.1211392429</v>
       </c>
       <c r="H5" t="n">
-        <v>40710.12113924291</v>
+        <v>40710.1211392429</v>
       </c>
       <c r="I5" t="n">
         <v>43385.32273194157</v>
@@ -26496,19 +26496,19 @@
         <v>43385.32273194158</v>
       </c>
       <c r="K5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="L5" t="n">
         <v>43385.32273194158</v>
       </c>
       <c r="M5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="N5" t="n">
         <v>43385.32273194158</v>
       </c>
       <c r="O5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="P5" t="n">
         <v>43385.32273194158</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-18038.11710164715</v>
       </c>
       <c r="C6" t="n">
-        <v>-16651.80453510678</v>
+        <v>-18038.11710164716</v>
       </c>
       <c r="D6" t="n">
-        <v>-16651.80453510676</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="E6" t="n">
-        <v>-266158.1342464993</v>
+        <v>-267203.3419865562</v>
       </c>
       <c r="F6" t="n">
-        <v>-25194.75403622098</v>
+        <v>-26043.71790295007</v>
       </c>
       <c r="G6" t="n">
-        <v>8196.608437838033</v>
+        <v>7525.327666593894</v>
       </c>
       <c r="H6" t="n">
-        <v>117095.0648648163</v>
+        <v>116423.784093572</v>
       </c>
       <c r="I6" t="n">
-        <v>92808.83856218512</v>
+        <v>92187.46922340833</v>
       </c>
       <c r="J6" t="n">
-        <v>122330.1929457357</v>
+        <v>121708.8236069587</v>
       </c>
       <c r="K6" t="n">
-        <v>122330.1929457357</v>
+        <v>121708.8236069588</v>
       </c>
       <c r="L6" t="n">
-        <v>122330.1929457359</v>
+        <v>121708.8236069587</v>
       </c>
       <c r="M6" t="n">
-        <v>67615.82059696094</v>
+        <v>66994.45125818401</v>
       </c>
       <c r="N6" t="n">
-        <v>89906.23944340899</v>
+        <v>89284.8701046319</v>
       </c>
       <c r="O6" t="n">
-        <v>93485.42960628889</v>
+        <v>92864.06026751196</v>
       </c>
       <c r="P6" t="n">
-        <v>122330.1929457357</v>
+        <v>121708.8236069588</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>345.7528191377625</v>
       </c>
       <c r="F3" t="n">
-        <v>453.7803991513518</v>
+        <v>453.780399151352</v>
       </c>
       <c r="G3" t="n">
         <v>551.5907128643867</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740967</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="F4" t="n">
-        <v>351.9386692965036</v>
+        <v>351.938669296504</v>
       </c>
       <c r="G4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="H4" t="n">
-        <v>471.8000591907776</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="I4" t="n">
         <v>506.0804618258591</v>
@@ -26816,19 +26816,19 @@
         <v>506.0804618258591</v>
       </c>
       <c r="K4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="L4" t="n">
         <v>506.0804618258591</v>
       </c>
       <c r="M4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="N4" t="n">
         <v>506.0804618258591</v>
       </c>
       <c r="O4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="P4" t="n">
         <v>506.0804618258591</v>
@@ -26971,10 +26971,10 @@
         <v>345.7528191377625</v>
       </c>
       <c r="F3" t="n">
-        <v>108.0275800135894</v>
+        <v>108.0275800135896</v>
       </c>
       <c r="G3" t="n">
-        <v>97.81031371303482</v>
+        <v>97.81031371303465</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740967</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="F4" t="n">
-        <v>132.3821118224069</v>
+        <v>132.3821118224074</v>
       </c>
       <c r="G4" t="n">
-        <v>119.8613898942738</v>
+        <v>119.8613898942735</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.28040263508149</v>
+        <v>34.28040263508154</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>219.5565574740966</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="N4" t="n">
-        <v>132.382111822407</v>
+        <v>132.3821118224074</v>
       </c>
       <c r="O4" t="n">
-        <v>119.8613898942737</v>
+        <v>119.8613898942735</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>219.5565574740967</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="N4" t="n">
-        <v>132.3821118224069</v>
+        <v>132.3821118224074</v>
       </c>
       <c r="O4" t="n">
-        <v>119.8613898942738</v>
+        <v>119.8613898942735</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.824242810658699</v>
+        <v>1.8242428106587</v>
       </c>
       <c r="H14" t="n">
-        <v>18.68252668465841</v>
+        <v>18.68252668465842</v>
       </c>
       <c r="I14" t="n">
-        <v>70.32912095791959</v>
+        <v>70.32912095791961</v>
       </c>
       <c r="J14" t="n">
-        <v>154.8303282511439</v>
+        <v>154.830328251144</v>
       </c>
       <c r="K14" t="n">
-        <v>232.0505264263267</v>
+        <v>232.0505264263268</v>
       </c>
       <c r="L14" t="n">
-        <v>287.879197343023</v>
+        <v>287.8791973430231</v>
       </c>
       <c r="M14" t="n">
-        <v>320.3210754270746</v>
+        <v>320.3210754270747</v>
       </c>
       <c r="N14" t="n">
-        <v>325.5042053128587</v>
+        <v>325.5042053128588</v>
       </c>
       <c r="O14" t="n">
-        <v>307.3643908643712</v>
+        <v>307.3643908643713</v>
       </c>
       <c r="P14" t="n">
-        <v>262.3283964762345</v>
+        <v>262.3283964762346</v>
       </c>
       <c r="Q14" t="n">
         <v>196.9977008195198</v>
       </c>
       <c r="R14" t="n">
-        <v>114.5920924550396</v>
+        <v>114.5920924550397</v>
       </c>
       <c r="S14" t="n">
-        <v>41.56993304788516</v>
+        <v>41.56993304788517</v>
       </c>
       <c r="T14" t="n">
-        <v>7.985622903658461</v>
+        <v>7.985622903658464</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1459394248526959</v>
+        <v>0.145939424852696</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.976055952891587</v>
+        <v>0.9760559528915874</v>
       </c>
       <c r="H15" t="n">
-        <v>9.426645650295066</v>
+        <v>9.42664565029507</v>
       </c>
       <c r="I15" t="n">
         <v>33.60543522017088</v>
       </c>
       <c r="J15" t="n">
-        <v>92.21588281244595</v>
+        <v>92.215882812446</v>
       </c>
       <c r="K15" t="n">
         <v>157.6116316561823</v>
@@ -32086,31 +32086,31 @@
         <v>211.9282892451668</v>
       </c>
       <c r="M15" t="n">
-        <v>247.3103175374867</v>
+        <v>247.3103175374868</v>
       </c>
       <c r="N15" t="n">
-        <v>253.8558857478869</v>
+        <v>253.855885747887</v>
       </c>
       <c r="O15" t="n">
-        <v>232.228540686447</v>
+        <v>232.2285406864471</v>
       </c>
       <c r="P15" t="n">
-        <v>186.3838775306751</v>
+        <v>186.3838775306752</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.5926861971787</v>
+        <v>124.5926861971788</v>
       </c>
       <c r="R15" t="n">
-        <v>60.60108802251452</v>
+        <v>60.60108802251455</v>
       </c>
       <c r="S15" t="n">
         <v>18.12981123024504</v>
       </c>
       <c r="T15" t="n">
-        <v>3.934190441698983</v>
+        <v>3.934190441698985</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06421420742707812</v>
+        <v>0.06421420742707815</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8182925230598147</v>
+        <v>0.818292523059815</v>
       </c>
       <c r="H16" t="n">
-        <v>7.275364432295449</v>
+        <v>7.275364432295452</v>
       </c>
       <c r="I16" t="n">
-        <v>24.60828787528971</v>
+        <v>24.60828787528972</v>
       </c>
       <c r="J16" t="n">
-        <v>57.85328138032889</v>
+        <v>57.85328138032892</v>
       </c>
       <c r="K16" t="n">
-        <v>95.07071313367663</v>
+        <v>95.07071313367668</v>
       </c>
       <c r="L16" t="n">
-        <v>121.6577811101837</v>
+        <v>121.6577811101838</v>
       </c>
       <c r="M16" t="n">
         <v>128.2710725010944</v>
@@ -32174,22 +32174,22 @@
         <v>115.6619286230364</v>
       </c>
       <c r="P16" t="n">
-        <v>98.9687611526161</v>
+        <v>98.96876115261614</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.52084027185413</v>
+        <v>68.52084027185415</v>
       </c>
       <c r="R16" t="n">
         <v>36.79340744594403</v>
       </c>
       <c r="S16" t="n">
-        <v>14.26060697005149</v>
+        <v>14.2606069700515</v>
       </c>
       <c r="T16" t="n">
-        <v>3.49634078034648</v>
+        <v>3.496340780346482</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04463413762144449</v>
+        <v>0.0446341376214445</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>5.064174064523016</v>
       </c>
       <c r="J12" t="n">
-        <v>178.3792047194902</v>
+        <v>178.3792047194896</v>
       </c>
       <c r="K12" t="n">
         <v>64.26460912288462</v>
@@ -35570,25 +35570,25 @@
         <v>58.3054477795641</v>
       </c>
       <c r="K13" t="n">
-        <v>20.18768008979552</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="L13" t="n">
-        <v>219.5565574740967</v>
+        <v>136.3178240383511</v>
       </c>
       <c r="M13" t="n">
-        <v>219.5565574740967</v>
+        <v>41.46974373716154</v>
       </c>
       <c r="N13" t="n">
-        <v>112.5641761794408</v>
+        <v>43.69812833659628</v>
       </c>
       <c r="O13" t="n">
-        <v>219.5565574740967</v>
+        <v>32.05239425411731</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62828140614095</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>118.3986047832474</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>81.50673691783598</v>
+        <v>81.50673691783607</v>
       </c>
       <c r="K14" t="n">
-        <v>142.9141367531096</v>
+        <v>142.9141367531097</v>
       </c>
       <c r="L14" t="n">
-        <v>192.3937992801781</v>
+        <v>192.3937992801783</v>
       </c>
       <c r="M14" t="n">
-        <v>227.0308509700292</v>
+        <v>227.0308509700293</v>
       </c>
       <c r="N14" t="n">
-        <v>232.5919145562394</v>
+        <v>232.5919145562395</v>
       </c>
       <c r="O14" t="n">
-        <v>214.1746152385881</v>
+        <v>214.1746152385882</v>
       </c>
       <c r="P14" t="n">
-        <v>168.6790331953503</v>
+        <v>168.6790331953505</v>
       </c>
       <c r="Q14" t="n">
-        <v>106.9638964203677</v>
+        <v>106.9638964203678</v>
       </c>
       <c r="R14" t="n">
-        <v>27.27994964031612</v>
+        <v>27.27994964031616</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13.06432975420866</v>
       </c>
       <c r="J15" t="n">
-        <v>286.976344996924</v>
+        <v>267.50190246325</v>
       </c>
       <c r="K15" t="n">
-        <v>184.2340355637988</v>
+        <v>101.7858488715669</v>
       </c>
       <c r="L15" t="n">
-        <v>155.8137654343177</v>
+        <v>155.8137654343178</v>
       </c>
       <c r="M15" t="n">
-        <v>189.7460337990693</v>
+        <v>189.7460337990694</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6624923541369</v>
+        <v>200.662492354137</v>
       </c>
       <c r="O15" t="n">
-        <v>174.477061686447</v>
+        <v>174.4770616864471</v>
       </c>
       <c r="P15" t="n">
-        <v>132.1242425278713</v>
+        <v>132.1242425278714</v>
       </c>
       <c r="Q15" t="n">
-        <v>67.90006769234002</v>
+        <v>67.90006769234006</v>
       </c>
       <c r="R15" t="n">
-        <v>1.600888917109117</v>
+        <v>90.45918838880738</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.07807875932943</v>
+        <v>72.07807875932944</v>
       </c>
       <c r="K16" t="n">
-        <v>170.6010117674463</v>
+        <v>251.1841754793716</v>
       </c>
       <c r="L16" t="n">
-        <v>351.9386692965036</v>
+        <v>351.938669296504</v>
       </c>
       <c r="M16" t="n">
-        <v>351.9386692965036</v>
+        <v>72.00613000231439</v>
       </c>
       <c r="N16" t="n">
-        <v>73.50842758854301</v>
+        <v>145.3083484174372</v>
       </c>
       <c r="O16" t="n">
-        <v>59.58703055004008</v>
+        <v>59.58703055004012</v>
       </c>
       <c r="P16" t="n">
-        <v>306.7217311017195</v>
+        <v>306.7217311017196</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.16131461192856</v>
+        <v>134.7107693652994</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>201.4939501547308</v>
       </c>
       <c r="M18" t="n">
-        <v>353.2362067683486</v>
+        <v>243.0526547726732</v>
       </c>
       <c r="N18" t="n">
         <v>255.379980966111</v>
@@ -35983,7 +35983,7 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.75545797822838</v>
+        <v>204.9390099739042</v>
       </c>
       <c r="R18" t="n">
         <v>103.5214789635406</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.89014897190253</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K19" t="n">
         <v>271.6762379261352</v>
       </c>
       <c r="L19" t="n">
-        <v>93.25227197797028</v>
+        <v>410.4028893870845</v>
       </c>
       <c r="M19" t="n">
         <v>448.1052379230254</v>
       </c>
       <c r="N19" t="n">
-        <v>435.8874471104327</v>
+        <v>164.1785211087836</v>
       </c>
       <c r="O19" t="n">
-        <v>122.7921372857474</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0540001777558</v>
+        <v>64.52118858874761</v>
       </c>
       <c r="Q19" t="n">
-        <v>149.4801267359677</v>
+        <v>21.93067198259682</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J21" t="n">
         <v>306.8530616732681</v>
       </c>
       <c r="K21" t="n">
-        <v>354.5656334897038</v>
+        <v>135.7583235882914</v>
       </c>
       <c r="L21" t="n">
         <v>201.4939501547308</v>
@@ -36220,10 +36220,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.75545797822838</v>
+        <v>204.9390099739042</v>
       </c>
       <c r="R21" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>18.89014897190253</v>
       </c>
       <c r="K22" t="n">
-        <v>65.62525498644217</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L22" t="n">
-        <v>410.4028893870845</v>
+        <v>93.25227197797028</v>
       </c>
       <c r="M22" t="n">
         <v>448.1052379230254</v>
@@ -36299,7 +36299,7 @@
         <v>64.52118858874761</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.93067198259682</v>
+        <v>133.0303064520178</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K24" t="n">
-        <v>404.1168265390431</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L24" t="n">
         <v>214.1541257794518</v>
@@ -36454,10 +36454,10 @@
         <v>238.4057462161408</v>
       </c>
       <c r="P24" t="n">
-        <v>183.4326479153362</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.1983779132224</v>
+        <v>264.8579032625959</v>
       </c>
       <c r="R24" t="n">
         <v>18.28336828375327</v>
@@ -36518,13 +36518,13 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K25" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L25" t="n">
-        <v>417.6704839137738</v>
+        <v>318.1551488498803</v>
       </c>
       <c r="M25" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N25" t="n">
         <v>443.3679056323699</v>
@@ -36533,10 +36533,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P25" t="n">
-        <v>70.43338606845131</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.95442139913228</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>240.8937112531726</v>
       </c>
       <c r="Q26" t="n">
-        <v>161.1941121877317</v>
+        <v>161.194112187732</v>
       </c>
       <c r="R26" t="n">
         <v>58.82526145471049</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J27" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K27" t="n">
-        <v>157.5061441391866</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L27" t="n">
         <v>214.1541257794519</v>
@@ -36694,7 +36694,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q27" t="n">
-        <v>506.0804618258591</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R27" t="n">
         <v>107.1416677554515</v>
@@ -36755,7 +36755,7 @@
         <v>22.34618924547858</v>
       </c>
       <c r="K28" t="n">
-        <v>85.75520164489863</v>
+        <v>158.5801352410747</v>
       </c>
       <c r="L28" t="n">
         <v>417.6704839137738</v>
@@ -36767,13 +36767,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
-        <v>91.42685060480903</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P28" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J30" t="n">
-        <v>312.361855595743</v>
+        <v>147.6574099585241</v>
       </c>
       <c r="K30" t="n">
-        <v>148.8157343186903</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L30" t="n">
         <v>214.1541257794519</v>
@@ -36922,7 +36922,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N30" t="n">
-        <v>506.0804618258589</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O30" t="n">
         <v>238.4057462161409</v>
@@ -36931,7 +36931,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.1983779132225</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R30" t="n">
         <v>18.28336828375328</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K31" t="n">
-        <v>68.99174184448033</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L31" t="n">
-        <v>417.6704839137738</v>
+        <v>318.1551488498803</v>
       </c>
       <c r="M31" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642375</v>
       </c>
       <c r="N31" t="n">
         <v>443.3679056323699</v>
@@ -37007,7 +37007,7 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P31" t="n">
-        <v>160.0217794650455</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q31" t="n">
         <v>26.02397106449331</v>
@@ -37071,7 +37071,7 @@
         <v>124.1289709513377</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7938168949564</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L32" t="n">
         <v>271.6421911238498</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
-        <v>234.1926735924575</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K33" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333068</v>
       </c>
       <c r="L33" t="n">
         <v>214.1541257794519</v>
       </c>
       <c r="M33" t="n">
-        <v>506.0804618258591</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N33" t="n">
         <v>270.5448280395447</v>
@@ -37229,10 +37229,10 @@
         <v>22.34618924547858</v>
       </c>
       <c r="K34" t="n">
-        <v>158.5801352410747</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L34" t="n">
-        <v>417.6704839137738</v>
+        <v>171.3455906522356</v>
       </c>
       <c r="M34" t="n">
         <v>455.7678973594753</v>
@@ -37247,7 +37247,7 @@
         <v>70.43338606845134</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K36" t="n">
         <v>145.1737298295874</v>
@@ -37402,13 +37402,13 @@
         <v>238.4057462161409</v>
       </c>
       <c r="P36" t="n">
-        <v>284.6233616966328</v>
+        <v>183.4326479153363</v>
       </c>
       <c r="Q36" t="n">
-        <v>506.0804618258589</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R36" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>22.34618924547858</v>
       </c>
       <c r="K37" t="n">
-        <v>243.4981817473041</v>
+        <v>243.4981817473045</v>
       </c>
       <c r="L37" t="n">
         <v>417.6704839137738</v>
@@ -37621,7 +37621,7 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
-        <v>227.1455606131482</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
         <v>145.1737298295874</v>
@@ -37633,7 +37633,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N39" t="n">
-        <v>506.0804618258591</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
         <v>238.4057462161409</v>
@@ -37642,7 +37642,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.1983779132225</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R39" t="n">
         <v>107.1416677554515</v>
@@ -37718,10 +37718,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P40" t="n">
-        <v>70.43338606845134</v>
+        <v>94.36383640308986</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.95442139913182</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>22.31535144311488</v>
+        <v>2.54989300907711</v>
       </c>
       <c r="J42" t="n">
         <v>312.361855595743</v>
@@ -37876,10 +37876,10 @@
         <v>238.4057462161409</v>
       </c>
       <c r="P42" t="n">
-        <v>422.6102861907534</v>
+        <v>183.4326479153363</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.1983779132225</v>
+        <v>361.1414746226779</v>
       </c>
       <c r="R42" t="n">
         <v>18.28336828375328</v>
@@ -37943,7 +37943,7 @@
         <v>68.99174184448033</v>
       </c>
       <c r="L43" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
         <v>455.7678973594753</v>
@@ -37955,10 +37955,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P43" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.5722272192375</v>
+        <v>49.95442139913182</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.88230731867586</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J45" t="n">
         <v>66.232154611265</v>
@@ -38116,7 +38116,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q45" t="n">
-        <v>506.0804618258591</v>
+        <v>498.6474177014201</v>
       </c>
       <c r="R45" t="n">
         <v>107.1416677554516</v>
